--- a/src/assets/PIOSA-Questions.xlsx
+++ b/src/assets/PIOSA-Questions.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,20 +30,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>PIOSA</t>
   </si>
   <si>
-    <t>Questions 1 to 15</t>
-  </si>
-  <si>
     <t>Put your answers below</t>
   </si>
   <si>
     <t>AWS Account Information</t>
   </si>
   <si>
+    <t>Network and Security Configuration</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -52,26 +52,17 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. AWS Account Login and Password:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Please provide the login credentials for an account with admin access.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Account Number  :  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAM User  :  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password  :  </t>
+      <t>4. Default VPC:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the default VPC for the accelerated workload.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -82,16 +73,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. Organizational Unit (OU):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the Organizational Unit (OU) within AWS.</t>
+      <t>5. Security Group Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide the name of the security group.</t>
     </r>
   </si>
   <si>
@@ -103,7 +94,75 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3. AWS Region:</t>
+      <t>6. Placement Group Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide the name of the placement group.</t>
+    </r>
+  </si>
+  <si>
+    <t>Server Details</t>
+  </si>
+  <si>
+    <t>Storage Configuration</t>
+  </si>
+  <si>
+    <t>Performance and Scaling</t>
+  </si>
+  <si>
+    <t>CPU Performance</t>
+  </si>
+  <si>
+    <r>
+      <t>1. IOPS Threshold for Scaling:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> What is the IOPS threshold to trigger scaling?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Expected Peak IOPS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the expected peak IOPS (e.g., 200,000 - 300,000 IOPS per 250GB).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Dynamic IOPS Configuration:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Do you need dynamic IOPS to be configured for specific times of the day,          week, or month? If yes, please define the frequency and time.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7. AWS Region:</t>
     </r>
     <r>
       <rPr>
@@ -116,84 +175,22 @@
     </r>
   </si>
   <si>
-    <t>Network and Security Configuration</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. Default VPC:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the default VPC for the accelerated workload.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5. Security Group Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Provide the name of the security group.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6. Placement Group Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Provide the name of the placement group.</t>
-    </r>
-  </si>
-  <si>
-    <t>Server Details</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7. PIOSA Server Name:</t>
+    <r>
+      <t>8. CPU Threshold for Dynamic IOPS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> What CPU threshold should trigger dynamic IOPS scaling?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9. PIOSA Server Name:</t>
     </r>
     <r>
       <rPr>
@@ -207,14 +204,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8. PIOSA Server Login Details:</t>
+      <t>10. PIOSA Server Login Details:</t>
     </r>
     <r>
       <rPr>
@@ -228,14 +218,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9. Accelerated Server Name:</t>
+      <t>11. Accelerated Server Name:</t>
     </r>
     <r>
       <rPr>
@@ -248,18 +231,8 @@
     </r>
   </si>
   <si>
-    <t>Storage Configuration</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10. Count of EBS Volumes:</t>
+    <r>
+      <t>12. Count of EBS Volumes:</t>
     </r>
     <r>
       <rPr>
@@ -273,14 +246,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11. Total EBS Volume Size:</t>
+      <t>13. Total EBS Volume Size:</t>
     </r>
     <r>
       <rPr>
@@ -293,94 +259,7 @@
     </r>
   </si>
   <si>
-    <t>Performance and Scaling</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12. IOPS Threshold for Scaling:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the IOPS threshold to trigger scaling?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13. Expected Peak IOPS:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the expected peak IOPS (e.g., 200,000 - 300,000 IOPS per 250GB).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>14. Dynamic IOPS Configuration:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Do you need dynamic IOPS to be configured for specific times of the day,          week, or month? If yes, please define the frequency and time.</t>
-    </r>
-  </si>
-  <si>
-    <t>CPU Performance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15. CPU Threshold for Dynamic IOPS:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What CPU threshold should trigger dynamic IOPS scaling?</t>
-    </r>
+    <t>Questions 1 to 13</t>
   </si>
 </sst>
 </file>
@@ -432,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,12 +332,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -480,21 +371,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right style="double">
-        <color theme="8" tint="0.39997558519241921"/>
-      </right>
-      <top style="double">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="double">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="7"/>
       </left>
@@ -503,15 +379,6 @@
       <bottom style="double">
         <color theme="8" tint="0.39997558519241921"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -546,24 +413,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -571,16 +423,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="double">
+        <color theme="8" tint="0.39997558519241921"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <right style="double">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="double">
+        <color theme="8" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -589,27 +441,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -617,23 +475,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +734,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1189,196 +1038,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" spans="1:2" ht="23.25">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" ht="24.75" thickTop="1" thickBot="1">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickTop="1"/>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickTop="1">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickTop="1">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickTop="1"/>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickTop="1"/>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickTop="1"/>
+    <row r="32" spans="1:2">
+      <c r="A32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="5"/>
+      <c r="B33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
